--- a/excel/upgrades.xlsx
+++ b/excel/upgrades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\Programs\Web Dev Related Stuff\Web Dev\Projects\EvaTion\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F450F-8F5E-4D21-81F1-57A51C4A5761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D40CB-81DB-4118-907F-3834C47C2D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15690" yWindow="3600" windowWidth="12300" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Penduduk</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Hotel</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>Kemakmuran</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Toko</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>Kriminalitas</t>
   </si>
   <si>
@@ -136,6 +130,18 @@
   </si>
   <si>
     <t>Investasi</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>fa-city</t>
+  </si>
+  <si>
+    <t>Kompleks</t>
   </si>
 </sst>
 </file>
@@ -200,13 +206,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,449 +495,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:R30"/>
+  <dimension ref="D4:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="4:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="4:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="K5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+    <row r="6" spans="4:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    <row r="7" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>100</v>
       </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="3">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3">
+        <v>100</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="3">
+        <v>50</v>
+      </c>
+      <c r="W7" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>500</v>
+      </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D8" s="4">
+    <row r="8" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3">
         <v>25</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>250</v>
       </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="3">
+        <v>25</v>
+      </c>
+      <c r="P8" s="3">
+        <v>250</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D9" s="4">
+    <row r="9" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3">
         <v>50</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="3">
+        <v>35</v>
+      </c>
+      <c r="P9" s="3">
+        <v>350</v>
+      </c>
     </row>
-    <row r="11" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+    <row r="10" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="3">
+        <v>75</v>
+      </c>
+      <c r="P10" s="3">
+        <v>750</v>
+      </c>
     </row>
-    <row r="12" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
+    <row r="11" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="K11" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4">
-        <v>25</v>
-      </c>
-      <c r="I15" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4">
-        <v>35</v>
-      </c>
-      <c r="I16" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="4">
-        <v>75</v>
-      </c>
-      <c r="I17" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="4">
-        <v>50</v>
-      </c>
-      <c r="I23" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="4">
-        <v>500</v>
-      </c>
-      <c r="I29" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="I5:I6"/>
